--- a/임양규_논문정리.xlsx
+++ b/임양규_논문정리.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lim03\OneDrive - 중앙대학교\Attachments\StarLab\지도\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="8_{A9579A69-921A-4CAF-BB9E-DC8F411D6B60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B4C8B166-28BB-4B62-87D3-2AD3881E0B2C}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="6_{63A5C667-B7FF-4A09-BDBB-4ECFCD47A36A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{F26D8DBB-8ACB-466A-9C1F-254C8BF684EF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{D77E7EF5-DC2F-4DFE-862E-51B5B4A93192}"/>
+    <workbookView xWindow="14220" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D77E7EF5-DC2F-4DFE-862E-51B5B4A93192}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="year" sheetId="2" r:id="rId2"/>
-    <sheet name="30" sheetId="4" r:id="rId3"/>
+    <sheet name="30" sheetId="4" r:id="rId2"/>
+    <sheet name="hand" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>팔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,336 @@
   <si>
     <t>Sensor 발전사?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">placing the hand or forearm from lap to a table, pushing and pulling a weight across a table, drinking from a beverage can, lifting a pencil, flipping a card, and turning a key. </t>
+  </si>
+  <si>
+    <t>Commodifying Pointing in HRI: Simple and Fast Pointing Gesture Detection from RGB-D Images</t>
+  </si>
+  <si>
+    <t>Read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">월 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision based Hand Gesture Recognition for Human Computer Interaction: A Survey</t>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probabilistic Detection of Pointing Directions for Human-Robot Interaction</t>
+  </si>
+  <si>
+    <t>What's the point? Frame-wise Pointing Gesture Recognition with Latent-Dynamic Conditional Random Fields</t>
+  </si>
+  <si>
+    <t>An efficient method for human pointing estimation for robot interaction</t>
+  </si>
+  <si>
+    <t>Visual estimation of pointed targets for robot guidance via fusion of face pose and hand orientation</t>
+  </si>
+  <si>
+    <t>Recognition of 3D-Pointing Gestures for Human-Robot-Interaction</t>
+  </si>
+  <si>
+    <t>A Monocular Pointing Pose Estimator for Gestural Instruction of a Mobile Robot</t>
+  </si>
+  <si>
+    <t>Selecting and commanding individual robots in a vision-based multi-robot system</t>
+  </si>
+  <si>
+    <t>Learning to interpret pointing gestures with a time-of-flight camera</t>
+  </si>
+  <si>
+    <t>Real-Time Person Tracking and Pointing Gesture Recognition for Human-Robot Interaction</t>
+  </si>
+  <si>
+    <t>Detection and Estimation of Omni-Directional Pointing Gestures Using Multiple Cameras</t>
+  </si>
+  <si>
+    <t>Pointing gesture recognition based on 3D-tracking of face, hands and head orientation</t>
+  </si>
+  <si>
+    <t>Real-time 3D pointing gesture recognition for mobile robots with cascade HMM and particle filter</t>
+  </si>
+  <si>
+    <t>Parametric Hidden Markov Models for Gesture Recognition</t>
+  </si>
+  <si>
+    <t>Gesture Recognition: A Survey</t>
+  </si>
+  <si>
+    <t>The Visual Analysis of Human Movement: A Survey</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual understanding of dynamic hand gestures</t>
+  </si>
+  <si>
+    <t>A Multimodal Interaction Method that Combines Gestures and Physical Game Controller</t>
+  </si>
+  <si>
+    <t>Real Time Hand Gesture Recognition System for Dynamic Applications</t>
+  </si>
+  <si>
+    <t>Capturing Hand Gesture Movement: A Survey on Tools, Techniques and Logical Considerations</t>
+  </si>
+  <si>
+    <t>Real-time hand posture recognition using range data</t>
+  </si>
+  <si>
+    <t>An Application of Classifier Combination Methods in Hand Gesture Recognition</t>
+  </si>
+  <si>
+    <t>Real-time gesture recognition using 3D depth camera</t>
+  </si>
+  <si>
+    <t>3D Hand pose modeling from uncalibrate monocular images</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Hand Gesture Recognition Based on SURF Tracking</t>
+  </si>
+  <si>
+    <t>A real time hand gesture recognition system using motion history image</t>
+  </si>
+  <si>
+    <t>Hand shape and hand gesture recognition</t>
+  </si>
+  <si>
+    <t>Tracking, Analysis, and Recognition of Human Gestures in Video</t>
+  </si>
+  <si>
+    <t>View Invariant Hand Gesture Recognition using 3D Trajectory</t>
+  </si>
+  <si>
+    <t>Layered architecture for real time sign recognition: Hand gesture and movement</t>
+  </si>
+  <si>
+    <t>Region Based Hand Gesture Recognition</t>
+  </si>
+  <si>
+    <t>A Tutorial on Support Vector Machines for Pattern Recognition</t>
+  </si>
+  <si>
+    <t>Multi-User Natural Interaction System based on Real-Time Hand Tracking and Gesture Recognition</t>
+  </si>
+  <si>
+    <t>Doppler-Radar Based Hand Gesture Recognition System Using Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>논문제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Mining and Knowledge Discovery</t>
+  </si>
+  <si>
+    <t>Computer Vision and Image Understanding</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Review</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICMI '03 Proceedings of the 5th international conference on Multimodal interfaces</t>
+  </si>
+  <si>
+    <t>Pattern Recognition</t>
+  </si>
+  <si>
+    <t>2;.159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image and Vision Computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Proceedings of the 6th International Conference on Human Robot Interaction, HRI 2011, Lausanne, Switzerland, March 6-9, 2011</t>
+  </si>
+  <si>
+    <t>2010 2nd International Conference on Signal Processing Systems</t>
+  </si>
+  <si>
+    <t>International Journal of UbiComp (IJU),</t>
+  </si>
+  <si>
+    <t>Engineering Applications of Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>2011 IEEE 2nd International Conference on Software Engineering and Service Science</t>
+  </si>
+  <si>
+    <t>2011 Proceedings of 20th International Conference on Computer Communications and Networks (ICCCN)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준년</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저널</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mathematical Problems in Engineering</t>
+  </si>
+  <si>
+    <t>2015 International Conference on Digital Image Computing: Techniques and Applications (DICTA)</t>
+  </si>
+  <si>
+    <t>S_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_01_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMAGE SEQUENCE ANALYSIS OF REAL WORLD HUMAN BODY MOTION</t>
+  </si>
+  <si>
+    <t>Real-time self-calibrating stereo person tracking using 3-D shape estimation from blob features</t>
+  </si>
+  <si>
+    <t>s_01_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conference: Pattern Recognition, 1996., Proceedings of the 13th International Conference</t>
+  </si>
+  <si>
+    <t>s01_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Representations of Human Movement</t>
+  </si>
+  <si>
+    <t>ACM Computing Surveys</t>
+  </si>
+  <si>
+    <t>s01_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image processing system for interpreting motion in American Sign Language</t>
+  </si>
+  <si>
+    <t>Journal of Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>Knowledge-guided visual perception of 3-D human gait from a single image sequence</t>
+  </si>
+  <si>
+    <t>s01_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Systems, Man, and Cybernetics Society </t>
+  </si>
+  <si>
+    <t>s_01_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Determining articulated motion from perspective views: A decomposition approach</t>
+  </si>
+  <si>
+    <t>s_01_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_02_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real-time recognition of activity using temporal templates</t>
+  </si>
+  <si>
+    <t>Proceedings Third IEEE Workshop on Applications of Computer Vision. WACV'96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s02_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motion segmentation and pose recognition with motion history gradients</t>
+  </si>
+  <si>
+    <t>Proceedings Fifth IEEE Workshop on Applications of Computer Vision</t>
+  </si>
+  <si>
+    <t>The representation and recognition of action using temporal templates</t>
+  </si>
+  <si>
+    <t>s02_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Trans. Pattern Analysis and Machine Intelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s02_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Vision and Applications</t>
+  </si>
+  <si>
+    <t>s02_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eigentracking: Robust matching and tracking of articulated objects using a view-based representation</t>
+  </si>
+  <si>
+    <t>International Journal of Computer Vision</t>
   </si>
 </sst>
 </file>
@@ -290,9 +620,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +654,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Minion W08 Regular_1167271"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -352,7 +715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,8 +725,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,17 +748,63 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,11 +1118,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16372D0-A024-4DB0-9051-4768DF460F7A}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="2.625" style="1" customWidth="1"/>
@@ -721,7 +1133,7 @@
     <col min="26" max="26" width="129.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -801,7 +1213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -818,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -832,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -861,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="33">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -893,7 +1305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -919,7 +1331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -954,7 +1366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -986,7 +1398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="3" customFormat="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1012,7 +1424,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1065,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1082,7 +1494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1114,7 +1526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1134,7 +1546,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1154,7 +1566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1183,7 +1595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1215,7 +1627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1238,7 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1261,7 +1673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1287,7 +1699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1310,7 +1722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1339,7 +1751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1362,7 +1774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1382,7 +1794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1408,7 +1820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1425,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1448,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1471,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1503,7 +1915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1520,7 +1932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1543,7 +1955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1560,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1580,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1606,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1620,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1637,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1651,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1668,7 +2080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1682,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="3" customFormat="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1708,7 +2120,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1737,7 +2149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1765,1076 +2177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD122746-04E0-47B1-848C-3EF548D34CED}">
-  <dimension ref="A1:Z41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F202DC3-26B2-44AE-A8AC-2905DBC47B42}">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="2.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.75" customWidth="1"/>
-    <col min="13" max="25" width="2.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="129.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1994</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E13" s="1">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E14" s="1">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E18" s="1">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E21" s="1">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E25" s="1">
-        <v>6</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E26" s="1">
-        <v>12</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="L27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1</v>
-      </c>
-      <c r="S28" s="1">
-        <v>1</v>
-      </c>
-      <c r="V28" s="1">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E29" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E36" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E37" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E38" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F202DC3-26B2-44AE-A8AC-2905DBC47B42}">
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="2.625" style="1" customWidth="1"/>
@@ -2845,7 +2195,7 @@
     <col min="26" max="26" width="129.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2925,7 +2275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
@@ -2961,7 +2311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -2978,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -2998,7 +2348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -3013,10 +2363,1115 @@
       </c>
       <c r="Z5" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12459180-174F-4C1D-901F-916011E98D2D}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
+    <col min="3" max="4" width="9" style="22"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="20"/>
+    <col min="8" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="78.5" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5">
+      <c r="A2" s="19"/>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="21">
+        <v>665</v>
+      </c>
+      <c r="D2" s="21">
+        <v>10334</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1998</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="21">
+        <v>120</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1581</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1999</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20">
+        <v>2.391</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="21">
+        <v>256</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1188</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2007</v>
+      </c>
+      <c r="F4" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
+        <v>588</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1998</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <v>11.541</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22.5">
+      <c r="A6" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21">
+        <v>645</v>
+      </c>
+      <c r="D6" s="21">
+        <v>509</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2012</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>3.8140000000000001</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.5">
+      <c r="A7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="21">
+        <v>141</v>
+      </c>
+      <c r="D7" s="21">
+        <v>505</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1999</v>
+      </c>
+      <c r="F7" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
+        <v>306</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1997</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="I8" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="21">
+        <v>30</v>
+      </c>
+      <c r="D9" s="21">
+        <v>171</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="19">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20">
+        <v>162</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2002</v>
+      </c>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="21">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21">
+        <v>144</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1996</v>
+      </c>
+      <c r="F11" s="19">
+        <v>9</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="20">
+        <v>54</v>
+      </c>
+      <c r="D12" s="20">
+        <v>143</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1979</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3</v>
+      </c>
+      <c r="G12" s="20">
+        <v>8.82</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22.5">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="21">
+        <v>50</v>
+      </c>
+      <c r="D13" s="21">
+        <v>127</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2003</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.5">
+      <c r="A14" s="19"/>
+      <c r="B14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="21">
+        <v>100</v>
+      </c>
+      <c r="D14" s="21">
+        <v>108</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2003</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20">
+        <v>91</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1996</v>
+      </c>
+      <c r="F15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="21">
+        <v>34</v>
+      </c>
+      <c r="D16" s="21">
+        <v>80</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="19">
+        <v>11</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20">
+        <v>74</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1992</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3</v>
+      </c>
+      <c r="G17" s="20">
+        <v>5.1310000000000002</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="21">
+        <v>26</v>
+      </c>
+      <c r="D18" s="21">
+        <v>71</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2008</v>
+      </c>
+      <c r="F18" s="19">
+        <v>7</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22.5">
+      <c r="A19" s="19"/>
+      <c r="B19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="21">
+        <v>385</v>
+      </c>
+      <c r="D19" s="21">
+        <v>58</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2010</v>
+      </c>
+      <c r="F19" s="19">
+        <v>7</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.5">
+      <c r="A20" s="19"/>
+      <c r="B20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="21">
+        <v>68</v>
+      </c>
+      <c r="D20" s="21">
+        <v>58</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2011</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="22.5">
+      <c r="A21" s="19"/>
+      <c r="B21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="21">
+        <v>34</v>
+      </c>
+      <c r="D21" s="21">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2011</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="22.5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="21">
+        <v>870</v>
+      </c>
+      <c r="D22" s="21">
+        <v>50</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2012</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.5">
+      <c r="A23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="20">
+        <v>30</v>
+      </c>
+      <c r="D23" s="20">
+        <v>46</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1992</v>
+      </c>
+      <c r="F23" s="9">
+        <v>9</v>
+      </c>
+      <c r="G23" s="20">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20">
+        <v>44</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22.5">
+      <c r="A25" s="19"/>
+      <c r="B25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="21">
+        <v>44</v>
+      </c>
+      <c r="D25" s="21">
+        <v>33</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2013</v>
+      </c>
+      <c r="F25" s="19">
+        <v>12</v>
+      </c>
+      <c r="G25" s="20">
+        <v>2.391</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="22.5">
+      <c r="A26" s="19"/>
+      <c r="B26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="21">
+        <v>24</v>
+      </c>
+      <c r="D26" s="21">
+        <v>27</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2010</v>
+      </c>
+      <c r="F26" s="19">
+        <v>10</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2.819</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22.5">
+      <c r="A27" s="19"/>
+      <c r="B27" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="21">
+        <v>534</v>
+      </c>
+      <c r="D27" s="21">
+        <v>27</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2011</v>
+      </c>
+      <c r="F27" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22.5">
+      <c r="A28" s="19"/>
+      <c r="B28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="21">
+        <v>52</v>
+      </c>
+      <c r="D28" s="21">
+        <v>24</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2004</v>
+      </c>
+      <c r="F28" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="19"/>
+      <c r="B29" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="21">
+        <v>86</v>
+      </c>
+      <c r="D29" s="21">
+        <v>23</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2011</v>
+      </c>
+      <c r="F29" s="19">
+        <v>7</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22.5">
+      <c r="A30" s="19"/>
+      <c r="B30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="21">
+        <v>30</v>
+      </c>
+      <c r="D30" s="21">
+        <v>18</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2011</v>
+      </c>
+      <c r="F30" s="19">
+        <v>7</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22.5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="21">
+        <v>45</v>
+      </c>
+      <c r="D31" s="21">
+        <v>18</v>
+      </c>
+      <c r="E31" s="19">
+        <v>2012</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1.145</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22.5">
+      <c r="A32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20">
+        <v>17</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1997</v>
+      </c>
+      <c r="F32" s="9">
+        <v>9</v>
+      </c>
+      <c r="G32" s="20">
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="22.5">
+      <c r="A33" s="19"/>
+      <c r="B33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="21">
+        <v>19</v>
+      </c>
+      <c r="D33" s="21">
+        <v>16</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2007</v>
+      </c>
+      <c r="F33" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="19"/>
+      <c r="B34" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="21">
+        <v>5</v>
+      </c>
+      <c r="D34" s="21">
+        <v>15</v>
+      </c>
+      <c r="E34" s="19">
+        <v>2010</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="22.5">
+      <c r="A35" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="21">
+        <v>18</v>
+      </c>
+      <c r="D35" s="21">
+        <v>12</v>
+      </c>
+      <c r="E35" s="19">
+        <v>2005</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="21">
+        <v>1</v>
+      </c>
+      <c r="D36" s="21">
+        <v>12</v>
+      </c>
+      <c r="E36" s="19">
+        <v>2009</v>
+      </c>
+      <c r="F36" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="22.5">
+      <c r="A37" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="21">
+        <v>6</v>
+      </c>
+      <c r="D37" s="21">
+        <v>12</v>
+      </c>
+      <c r="E37" s="19">
+        <v>2015</v>
+      </c>
+      <c r="F37" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="21">
+        <v>85</v>
+      </c>
+      <c r="D38" s="21">
+        <v>12</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:9" ht="22.5">
+      <c r="A39" s="19"/>
+      <c r="B39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="21">
+        <v>6</v>
+      </c>
+      <c r="D39" s="21">
+        <v>12</v>
+      </c>
+      <c r="E39" s="19">
+        <v>2015</v>
+      </c>
+      <c r="F39" s="19">
+        <v>11</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="22.5">
+      <c r="A40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="21">
+        <v>78</v>
+      </c>
+      <c r="D40" s="21">
+        <v>10</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:9" ht="22.5">
+      <c r="A41" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="21">
+        <v>33</v>
+      </c>
+      <c r="D41" s="21">
+        <v>10</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" ht="22.5">
+      <c r="A42" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="21">
+        <v>7</v>
+      </c>
+      <c r="D42" s="21">
+        <v>7</v>
+      </c>
+      <c r="E42" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F42" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="22.5">
+      <c r="A43" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="21">
+        <v>10</v>
+      </c>
+      <c r="D43" s="21">
+        <v>5</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2011</v>
+      </c>
+      <c r="F43" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="22.5">
+      <c r="A44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="21">
+        <v>8</v>
+      </c>
+      <c r="D44" s="21">
+        <v>5</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2015</v>
+      </c>
+      <c r="F44" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="33.75">
+      <c r="A45" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="21">
+        <v>29</v>
+      </c>
+      <c r="D45" s="21">
+        <v>4</v>
+      </c>
+      <c r="E45" s="19">
+        <v>2015</v>
+      </c>
+      <c r="F45" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="22.5">
+      <c r="A46" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="21">
+        <v>12</v>
+      </c>
+      <c r="D46" s="21">
+        <v>3</v>
+      </c>
+      <c r="E46" s="19">
+        <v>2006</v>
+      </c>
+      <c r="F46" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="21">
+        <v>39</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="19">
+        <v>2019</v>
+      </c>
+      <c r="F47" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="22.5">
+      <c r="A48" s="19"/>
+      <c r="B48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="21">
+        <v>3</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="19">
+        <v>2019</v>
+      </c>
+      <c r="F48" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I49">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B34" r:id="rId1" display="https://www.researchgate.net/publication/221473364_Selecting_and_commanding_individual_robots_in_a_vision-based_multi-robot_system" xr:uid="{3CD6087B-F270-4360-99AB-A298832774F2}"/>
+    <hyperlink ref="B47" r:id="rId2" display="https://www.researchgate.net/publication/325628921_Doppler-Radar_Based_Hand_Gesture_Recognition_System_Using_Convolutional_Neural_Networks" xr:uid="{3E24F19E-614E-42AB-970F-49CAA15D3604}"/>
+    <hyperlink ref="I2" r:id="rId3" tooltip="Data Mining and Knowledge Discovery" display="https://link.springer.com/journal/10618" xr:uid="{B1011CA7-DEF7-4814-9CBA-973B593B55EC}"/>
+    <hyperlink ref="I13" r:id="rId4" tooltip="Conference Website" display="http://icmi.cs.ucsb.edu/" xr:uid="{1B5342C0-A786-4757-B4E6-78728DC887EA}"/>
+    <hyperlink ref="I16" r:id="rId5" tooltip="Go to Pattern Recognition on ScienceDirect" display="https://www.sciencedirect.com/science/journal/00313203" xr:uid="{8E4DF8DD-ADEA-4AE8-8014-480DC679B82C}"/>
+    <hyperlink ref="I18" r:id="rId6" tooltip="Go to Image and Vision Computing on ScienceDirect" display="https://www.sciencedirect.com/science/journal/02628856" xr:uid="{DC62DD8F-5FB3-4243-A058-7E4DBD7C89BC}"/>
+    <hyperlink ref="I21" r:id="rId7" tooltip="Go to Image and Vision Computing on ScienceDirect" display="https://www.sciencedirect.com/science/journal/02628856" xr:uid="{07D4717E-4734-46B5-83EF-A58B62DD7494}"/>
+    <hyperlink ref="I26" r:id="rId8" tooltip="Go to Engineering Applications of Artificial Intelligence on ScienceDirect" display="https://www.sciencedirect.com/science/journal/09521976" xr:uid="{AFABF6C6-87FF-408F-9A6A-9B6B177D1D45}"/>
+    <hyperlink ref="I9" r:id="rId9" tooltip="Go to Pattern Recognition on ScienceDirect" display="https://www.sciencedirect.com/science/journal/00313203" xr:uid="{F19FDE90-D8EB-4C16-B3B7-086153422519}"/>
+    <hyperlink ref="I17" r:id="rId10" display="http://www.ieeesmc.org/" xr:uid="{5A484050-AC8A-4510-952B-ED63CDC85688}"/>
+    <hyperlink ref="I32" r:id="rId11" tooltip="Go to Pattern Recognition on ScienceDirect" display="https://www.sciencedirect.com/science/journal/00313203" xr:uid="{8C42C272-3CBB-4954-BD7B-E1F6FBF78643}"/>
+    <hyperlink ref="I15" r:id="rId12" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=4231" xr:uid="{3E5A4ED5-47E6-44D7-9426-0718FCB54160}"/>
+    <hyperlink ref="I24" r:id="rId13" display="https://ieeexplore.ieee.org/xpl/mostRecentIssue.jsp?punumber=7192" xr:uid="{EFE20D3E-11B0-4B58-AA2D-3E6E821CBB0D}"/>
+    <hyperlink ref="I10" r:id="rId14" tooltip="Machine Vision and Applications" display="https://link.springer.com/journal/138" xr:uid="{E3F2F8D7-571E-4C95-AB41-F117C305F1DB}"/>
+    <hyperlink ref="I5" r:id="rId15" tooltip="International Journal of Computer Vision" display="https://link.springer.com/journal/11263" xr:uid="{6C85E133-F621-4E61-BF75-5431CAE72DB3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
--- a/임양규_논문정리.xlsx
+++ b/임양규_논문정리.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lim03\OneDrive - 중앙대학교\Attachments\StarLab\지도\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecauac-my.sharepoint.com/personal/lim0386_cau_ac_kr/Documents/Attachments/StarLab/지도/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="6_{63A5C667-B7FF-4A09-BDBB-4ECFCD47A36A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{F26D8DBB-8ACB-466A-9C1F-254C8BF684EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05B9359-FB3E-4532-9037-7CAB366FD8F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D77E7EF5-DC2F-4DFE-862E-51B5B4A93192}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="18210" windowHeight="11385" activeTab="4" xr2:uid="{D77E7EF5-DC2F-4DFE-862E-51B5B4A93192}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="30" sheetId="4" r:id="rId2"/>
     <sheet name="hand" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="202">
   <si>
     <t>팔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,18 +470,6 @@
   </si>
   <si>
     <t>2011 Proceedings of 20th International Conference on Computer Communications and Networks (ICCCN)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기준년</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -614,6 +604,352 @@
   <si>
     <t>International Journal of Computer Vision</t>
   </si>
+  <si>
+    <t>측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손 재스처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>운동의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유형과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지금까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횟수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인식하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연구</t>
+    </r>
+  </si>
+  <si>
+    <t>International Conference on Ubiquitous Computing</t>
+  </si>
+  <si>
+    <r>
+      <t>Tracking </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>free-weight exercises</t>
+    </r>
+  </si>
+  <si>
+    <t>Wearable Wellness Monitoring Using ECG and Accelerometer Data. HP Laboratory Tech Report</t>
+  </si>
+  <si>
+    <t>Georgia Tech Gesture Toolkit: Supporting Experiments in Gesture Recognition</t>
+  </si>
+  <si>
+    <t>GT2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of International Conference on Perceptive and Multimodal User Interfaces 2003, pp. 85–92 (2003)</t>
+  </si>
+  <si>
+    <t>An Inertial Measurement Framework for Gesture Recognition and Applications</t>
+  </si>
+  <si>
+    <t>Wachsmuth, I., Sowa, T. (eds.) GW 2001. LNCS (LNAI), vol. 2298, pp. 9–20. Springer, Heidelberg (2002)</t>
+  </si>
+  <si>
+    <r>
+      <t>UbiComp 2007: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF8E2555"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>UbiComp 2007: Ubiquitous Computing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t> pp 19-37| </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF8E2555"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cite as</t>
+    </r>
+  </si>
+  <si>
+    <t>중심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작인식을 이용한 탁구 스윙 분석</t>
+  </si>
+  <si>
+    <t>Journal of Institute of Control, Robotics and Systems</t>
+  </si>
+  <si>
+    <t>탁구 스윙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real-Time Human Pose Recognition in Parts from Single Depth Images</t>
+  </si>
+  <si>
+    <t>Microsoft Research Cambridge &amp; Xbox Incubation</t>
+  </si>
+  <si>
+    <t>부위별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Recognition of Human Movement Using Temporal Templates</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON PATTERN ANALYSIS AND MACHINE INTELLIGENCE, VOL. 23, NO. 3, MARCH 2001</t>
+  </si>
+  <si>
+    <t>Minimal-latency human action recognition using reliable-inference</t>
+  </si>
+  <si>
+    <t>image and vision computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real-time human motion analysis by image skeletonization</t>
+  </si>
+  <si>
+    <t>In IEEE Workshop on Applications of Computer Vision, pp. 15-21, 1998</t>
+  </si>
+  <si>
+    <t>Human action recognition with extremities as semantic posture representation</t>
+  </si>
+  <si>
+    <t>International Workshop on Semantic Learning and Applications in Multimedia (SLAM, in conjunction with CVPR), Jun. 2009</t>
+  </si>
+  <si>
+    <t>Human activity recognition using body joint-angle features and hidden Markov model</t>
+  </si>
+  <si>
+    <t>ETRI Journal, vol. 33, no. 4, pp. 569-579, 2011</t>
+  </si>
+  <si>
+    <t>Action recognition based on a bag of 3D points</t>
+  </si>
+  <si>
+    <t>IEEE Computer Society Conference on Computer Vision and Pattern Recognition Workshop, 2010</t>
+  </si>
+  <si>
+    <t>View invariant human action recognition using histograms of 3D joints</t>
+  </si>
+  <si>
+    <t>IEEE Computer Society Conference on Computer Vision and Pattern Recognition Workshop, 2012</t>
+  </si>
+  <si>
+    <t>EigenJoits-based action recognition using naïve-bayes-nearest-neighbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in Second international workshop on human activity understanding from 3d data in conjunction with CVPR, pp. 14-19, 2012</t>
+  </si>
+  <si>
+    <t>Human detection using depth information by Kinect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Workshop on Human Activity Understanding from 3D Data in conjunction with CVPR (HAU3D), Jun. 2011</t>
+  </si>
+  <si>
+    <t>Human activity detection from RGBD images</t>
+  </si>
+  <si>
+    <t>In AAAI workshop on Pattern, Activity and Intent Recognition (PAIR), 2011</t>
+  </si>
+  <si>
+    <t>저널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +958,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +1023,130 @@
       <name val="Minion W08 Regular_1167271"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF8E2555"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -729,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +1235,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -798,6 +1255,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2399,66 +2898,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12459180-174F-4C1D-901F-916011E98D2D}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
-    <col min="3" max="4" width="9" style="22"/>
+    <col min="3" max="4" width="9" style="21"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="20"/>
+    <col min="7" max="7" width="9" style="19"/>
     <col min="8" max="8" width="9" style="10"/>
     <col min="9" max="9" width="78.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>68</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="22.5">
-      <c r="A2" s="19"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>665</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>10334</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>1998</v>
       </c>
-      <c r="F2" s="19">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19">
         <v>2.4809999999999999</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -2466,60 +2965,63 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
-        <v>126</v>
+      <c r="A3" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>120</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>1581</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>1999</v>
       </c>
-      <c r="F3" s="19">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
         <v>2.391</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>256</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>1188</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>2007</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19">
         <v>588</v>
       </c>
       <c r="E5" s="9">
@@ -2528,33 +3030,36 @@
       <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>11.541</v>
       </c>
+      <c r="H5" s="22" t="s">
+        <v>160</v>
+      </c>
       <c r="I5" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22.5">
-      <c r="A6" s="19" t="s">
-        <v>127</v>
+      <c r="A6" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>645</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>509</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>2012</v>
       </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
         <v>3.8140000000000001</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -2562,34 +3067,34 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="22.5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>141</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>505</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>1999</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+        <v>150</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
         <v>306</v>
       </c>
       <c r="E8" s="9">
@@ -2597,44 +3102,44 @@
       </c>
       <c r="F8" s="9"/>
       <c r="I8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>30</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>171</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>1984</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>12</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>3.9620000000000002</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20">
+        <v>148</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19">
         <v>162</v>
       </c>
       <c r="E10" s="9">
@@ -2643,44 +3148,47 @@
       <c r="F10" s="9">
         <v>7</v>
       </c>
+      <c r="H10" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I10" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="20">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20">
+        <v>144</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1996</v>
+      </c>
+      <c r="F11" s="18">
+        <v>9</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="21">
-        <v>10</v>
-      </c>
-      <c r="D11" s="21">
-        <v>144</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1996</v>
-      </c>
-      <c r="F11" s="19">
-        <v>9</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>54</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>143</v>
       </c>
       <c r="E12" s="9">
@@ -2689,28 +3197,28 @@
       <c r="F12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>8.82</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22.5">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>50</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>127</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>2003</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>1</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -2718,32 +3226,32 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="22.5">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>100</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>108</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>2003</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
         <v>91</v>
       </c>
       <c r="E15" s="9">
@@ -2753,27 +3261,27 @@
         <v>12</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>34</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>80</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>2000</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>11</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>3.9620000000000002</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -2782,13 +3290,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20">
+        <v>138</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19">
         <v>74</v>
       </c>
       <c r="E17" s="9">
@@ -2797,31 +3305,34 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>5.1310000000000002</v>
       </c>
+      <c r="H17" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>26</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>71</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>2008</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>7</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>114</v>
       </c>
       <c r="I18" s="13" t="s">
@@ -2829,20 +3340,20 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="22.5">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>385</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>58</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>2010</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>7</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -2850,20 +3361,20 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="22.5">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>68</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>58</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>2011</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -2871,23 +3382,23 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="22.5">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>34</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>52</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>2011</v>
       </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>114</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -2895,20 +3406,20 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>870</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>50</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>2012</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>1</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -2917,15 +3428,15 @@
     </row>
     <row r="23" spans="1:9" ht="22.5">
       <c r="A23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>30</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>46</v>
       </c>
       <c r="E23" s="9">
@@ -2934,22 +3445,22 @@
       <c r="F23" s="9">
         <v>9</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>3.4049999999999998</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19">
         <v>44</v>
       </c>
       <c r="E24" s="9">
@@ -2959,27 +3470,27 @@
         <v>12</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="22.5">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>44</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>33</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>2013</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>12</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>2.391</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -2987,23 +3498,23 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>24</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>27</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>2010</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>10</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>2.819</v>
       </c>
       <c r="I26" s="13" t="s">
@@ -3011,56 +3522,56 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="22.5">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>534</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>27</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>2011</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="22.5">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>52</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>24</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>2004</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>86</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>23</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>2011</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>7</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -3068,20 +3579,20 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="22.5">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>30</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>18</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>2011</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>7</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -3089,38 +3600,38 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="22.5">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>45</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>18</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>2012</v>
       </c>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
         <v>1.145</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="22.5">
       <c r="A32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19">
         <v>17</v>
       </c>
       <c r="E32" s="9">
@@ -3129,7 +3640,7 @@
       <c r="F32" s="9">
         <v>9</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>3.9620000000000002</v>
       </c>
       <c r="I32" s="13" t="s">
@@ -3137,315 +3648,315 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="22.5">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>19</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>16</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>2007</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>5</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="20">
         <v>15</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>2010</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="22.5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>18</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>12</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>2005</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="21">
-        <v>1</v>
-      </c>
-      <c r="D36" s="21">
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20">
         <v>12</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>2009</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="22.5">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>6</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>12</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>2015</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>85</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="20">
         <v>12</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="22.5">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>6</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="20">
         <v>12</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="18">
         <v>2015</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
         <v>11</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="22.5">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>78</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>10</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:9" ht="22.5">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>33</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>10</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="22.5">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>7</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="20">
         <v>7</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>2000</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="22.5">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>10</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>5</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <v>2011</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="22.5">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>8</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>5</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="18">
         <v>2015</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="33.75">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>29</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <v>4</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="18">
         <v>2015</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="22.5">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>12</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <v>3</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="18">
         <v>2006</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>39</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="18">
         <v>2019</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="22.5">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>3</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="18">
         <v>2019</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
@@ -3474,4 +3985,570 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43653153-950E-4C3C-B784-289090B42BEF}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="9" max="9" width="93.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="8"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="8"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="8"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="8"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="29"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://link.springer.com/chapter/10.1007/978-3-540-74853-3_2" xr:uid="{037D7906-2A49-4F6A-AB7E-2C0D6B25D944}"/>
+    <hyperlink ref="I2" r:id="rId2" display="https://link.springer.com/conference/huc" xr:uid="{D2AA75FC-E1AE-4219-8F22-830FCF7849EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB17B5F-7ABA-4C1A-9B61-3702D4410964}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="9" max="9" width="91.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="31" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.95" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34">
+        <v>1998</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.95" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34">
+        <v>2001</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.95" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34">
+        <v>2006</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.95" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34">
+        <v>2009</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B6" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34">
+        <v>2010</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34">
+        <v>2011</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B8" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34">
+        <v>2011</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B9" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34">
+        <v>2011</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B10" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34">
+        <v>2011</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B11" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34">
+        <v>2012</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B12" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34">
+        <v>2012</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.95" customHeight="1">
+      <c r="B13" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34">
+        <v>2015</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:I13">
+    <sortCondition ref="E2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>